--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nppc-Npr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nppc-Npr2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.647218666666666</v>
+        <v>2.647218666666667</v>
       </c>
       <c r="H2">
-        <v>7.941655999999999</v>
+        <v>7.941656</v>
       </c>
       <c r="I2">
         <v>0.4640059894538357</v>
       </c>
       <c r="J2">
-        <v>0.4640059894538357</v>
+        <v>0.4640059894538356</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>7.746472333333333</v>
+        <v>19.523753</v>
       </c>
       <c r="N2">
-        <v>23.239417</v>
+        <v>58.571259</v>
       </c>
       <c r="O2">
-        <v>0.2566490502786115</v>
+        <v>0.4652898160202426</v>
       </c>
       <c r="P2">
-        <v>0.2566490502786115</v>
+        <v>0.4652898160202426</v>
       </c>
       <c r="Q2">
-        <v>20.50660616161689</v>
+        <v>51.68364338498933</v>
       </c>
       <c r="R2">
-        <v>184.559455454552</v>
+        <v>465.152790464904</v>
       </c>
       <c r="S2">
-        <v>0.1190866965169143</v>
+        <v>0.2158972614652658</v>
       </c>
       <c r="T2">
-        <v>0.1190866965169143</v>
+        <v>0.2158972614652658</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.647218666666666</v>
+        <v>2.647218666666667</v>
       </c>
       <c r="H3">
-        <v>7.941655999999999</v>
+        <v>7.941656</v>
       </c>
       <c r="I3">
         <v>0.4640059894538357</v>
       </c>
       <c r="J3">
-        <v>0.4640059894538357</v>
+        <v>0.4640059894538356</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>57.518902</v>
       </c>
       <c r="O3">
-        <v>0.6352212523820423</v>
+        <v>0.4569298967820781</v>
       </c>
       <c r="P3">
-        <v>0.6352212523820423</v>
+        <v>0.4569298967820781</v>
       </c>
       <c r="Q3">
         <v>50.75503702019022</v>
@@ -632,10 +632,10 @@
         <v>456.795333181712</v>
       </c>
       <c r="S3">
-        <v>0.2947464657336342</v>
+        <v>0.2120182088674072</v>
       </c>
       <c r="T3">
-        <v>0.2947464657336342</v>
+        <v>0.2120182088674072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.647218666666666</v>
+        <v>2.647218666666667</v>
       </c>
       <c r="H4">
-        <v>7.941655999999999</v>
+        <v>7.941656</v>
       </c>
       <c r="I4">
         <v>0.4640059894538357</v>
       </c>
       <c r="J4">
-        <v>0.4640059894538357</v>
+        <v>0.4640059894538356</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>9.791079</v>
       </c>
       <c r="O4">
-        <v>0.1081296973393462</v>
+        <v>0.07778028719767933</v>
       </c>
       <c r="P4">
-        <v>0.1081296973393462</v>
+        <v>0.07778028719767933</v>
       </c>
       <c r="Q4">
-        <v>8.639709031869332</v>
+        <v>8.639709031869334</v>
       </c>
       <c r="R4">
-        <v>77.75738128682399</v>
+        <v>77.757381286824</v>
       </c>
       <c r="S4">
-        <v>0.05017282720328712</v>
+        <v>0.03609051912116271</v>
       </c>
       <c r="T4">
-        <v>0.05017282720328712</v>
+        <v>0.03609051912116271</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>9.173760999999999</v>
       </c>
       <c r="I5">
-        <v>0.5359940105461644</v>
+        <v>0.5359940105461642</v>
       </c>
       <c r="J5">
-        <v>0.5359940105461644</v>
+        <v>0.5359940105461642</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>7.746472333333333</v>
+        <v>19.523753</v>
       </c>
       <c r="N5">
-        <v>23.239417</v>
+        <v>58.571259</v>
       </c>
       <c r="O5">
-        <v>0.2566490502786115</v>
+        <v>0.4652898160202426</v>
       </c>
       <c r="P5">
-        <v>0.2566490502786115</v>
+        <v>0.4652898160202426</v>
       </c>
       <c r="Q5">
-        <v>23.68809525970411</v>
+        <v>59.70208128167766</v>
       </c>
       <c r="R5">
-        <v>213.192857337337</v>
+        <v>537.3187315350989</v>
       </c>
       <c r="S5">
-        <v>0.1375623537616971</v>
+        <v>0.2493925545549767</v>
       </c>
       <c r="T5">
-        <v>0.1375623537616971</v>
+        <v>0.2493925545549767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>9.173760999999999</v>
       </c>
       <c r="I6">
-        <v>0.5359940105461644</v>
+        <v>0.5359940105461642</v>
       </c>
       <c r="J6">
-        <v>0.5359940105461644</v>
+        <v>0.5359940105461642</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>57.518902</v>
       </c>
       <c r="O6">
-        <v>0.6352212523820423</v>
+        <v>0.4569298967820781</v>
       </c>
       <c r="P6">
-        <v>0.6352212523820423</v>
+        <v>0.4569298967820781</v>
       </c>
       <c r="Q6">
         <v>58.62940665893577</v>
@@ -818,10 +818,10 @@
         <v>527.6646599304219</v>
       </c>
       <c r="S6">
-        <v>0.3404747866484081</v>
+        <v>0.2449116879146709</v>
       </c>
       <c r="T6">
-        <v>0.3404747866484081</v>
+        <v>0.2449116879146709</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>9.173760999999999</v>
       </c>
       <c r="I7">
-        <v>0.5359940105461644</v>
+        <v>0.5359940105461642</v>
       </c>
       <c r="J7">
-        <v>0.5359940105461644</v>
+        <v>0.5359940105461642</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>9.791079</v>
       </c>
       <c r="O7">
-        <v>0.1081296973393462</v>
+        <v>0.07778028719767933</v>
       </c>
       <c r="P7">
-        <v>0.1081296973393462</v>
+        <v>0.07778028719767933</v>
       </c>
       <c r="Q7">
         <v>9.980113186457666</v>
@@ -880,10 +880,10 @@
         <v>89.82101867811899</v>
       </c>
       <c r="S7">
-        <v>0.05795687013605909</v>
+        <v>0.04168976807651662</v>
       </c>
       <c r="T7">
-        <v>0.05795687013605909</v>
+        <v>0.04168976807651662</v>
       </c>
     </row>
   </sheetData>
